--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\datasets_cestas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E1FB3B-47D1-45F9-A521-85688B5EBA5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2093F993-954A-4862-AA11-20E53C260601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+      <selection activeCell="B220" sqref="B220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2051,8 +2051,12 @@
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A219" s="3"/>
-      <c r="B219" s="2"/>
+      <c r="A219" s="3">
+        <v>44958</v>
+      </c>
+      <c r="B219" s="2">
+        <v>588.94000000000005</v>
+      </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2093F993-954A-4862-AA11-20E53C260601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477EE66-8E74-4E52-824B-C38C5642ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B220" sqref="B220"/>
+      <selection activeCell="B221" sqref="B221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2059,8 +2059,12 @@
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A220" s="3"/>
-      <c r="B220" s="2"/>
+      <c r="A220" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B220" s="2">
+        <v>565.1</v>
+      </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477EE66-8E74-4E52-824B-C38C5642ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C05819-4710-49CC-8200-C7867DE5F64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B221" sqref="B221"/>
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2067,8 +2067,12 @@
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A221" s="3"/>
-      <c r="B221" s="2"/>
+      <c r="A221" s="3">
+        <v>45017</v>
+      </c>
+      <c r="B221" s="2">
+        <v>578.46</v>
+      </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C05819-4710-49CC-8200-C7867DE5F64C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FDF9D-C903-4F26-9827-C91CDA7E9963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+      <selection activeCell="B223" sqref="B223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2075,8 +2075,12 @@
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A222" s="3"/>
-      <c r="B222" s="2"/>
+      <c r="A222" s="3">
+        <v>45047</v>
+      </c>
+      <c r="B222" s="2">
+        <v>584.97</v>
+      </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E03FDF9D-C903-4F26-9827-C91CDA7E9963}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE0C4D4-F666-4F5A-B336-8475266A8223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B223" sqref="B223"/>
+      <selection activeCell="B224" sqref="B224"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2083,8 +2083,12 @@
       </c>
     </row>
     <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A223" s="3"/>
-      <c r="B223" s="2"/>
+      <c r="A223" s="3">
+        <v>45078</v>
+      </c>
+      <c r="B223" s="2">
+        <v>569.23</v>
+      </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CE0C4D4-F666-4F5A-B336-8475266A8223}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139078A-195B-46F0-A79B-60D47C6429DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B224" sqref="B224"/>
+      <selection activeCell="A225" sqref="A225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2091,8 +2091,12 @@
       </c>
     </row>
     <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A224" s="3"/>
-      <c r="B224" s="2"/>
+      <c r="A224" s="3">
+        <v>45108</v>
+      </c>
+      <c r="B224" s="2">
+        <v>564.5</v>
+      </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Dropbox\PythonNotebooks\previsao_cestas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8139078A-195B-46F0-A79B-60D47C6429DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0DB99-5E14-4933-AE6C-A4D142F1ACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="A225" sqref="A225"/>
+      <selection activeCell="B226" sqref="B226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2099,8 +2099,12 @@
       </c>
     </row>
     <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A225" s="3"/>
-      <c r="B225" s="2"/>
+      <c r="A225" s="3">
+        <v>45139</v>
+      </c>
+      <c r="B225" s="2">
+        <v>542.47</v>
+      </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90B0DB99-5E14-4933-AE6C-A4D142F1ACF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F80D92-970D-4A05-A51F-1AAD00A5756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226"/>
+      <selection activeCell="B227" sqref="B227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2107,8 +2107,12 @@
       </c>
     </row>
     <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A226" s="3"/>
-      <c r="B226" s="2"/>
+      <c r="A226" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B226" s="2">
+        <v>534.02</v>
+      </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F80D92-970D-4A05-A51F-1AAD00A5756B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226C3D2-9540-45C4-8A71-4A0B47C9A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B227" sqref="B227"/>
+      <selection activeCell="B228" sqref="B228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2115,8 +2115,12 @@
       </c>
     </row>
     <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A227" s="3"/>
-      <c r="B227" s="2"/>
+      <c r="A227" s="3">
+        <v>45200</v>
+      </c>
+      <c r="B227" s="2">
+        <v>536.29</v>
+      </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F226C3D2-9540-45C4-8A71-4A0B47C9A90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B43DA4-59F9-4E20-8F13-F21BAA8BA7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B228" sqref="B228"/>
+      <selection activeCell="B229" sqref="B229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2123,8 +2123,12 @@
       </c>
     </row>
     <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A228" s="3"/>
-      <c r="B228" s="2"/>
+      <c r="A228" s="3">
+        <v>45231</v>
+      </c>
+      <c r="B228" s="2">
+        <v>529.29</v>
+      </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B43DA4-59F9-4E20-8F13-F21BAA8BA7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2736A-90B0-46F5-82EE-1E4CFB0067B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B229" sqref="B229"/>
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2131,8 +2131,12 @@
       </c>
     </row>
     <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A229" s="3"/>
-      <c r="B229" s="2"/>
+      <c r="A229" s="3">
+        <v>45261</v>
+      </c>
+      <c r="B229" s="2">
+        <v>540.92999999999995</v>
+      </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF2736A-90B0-46F5-82EE-1E4CFB0067B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C79AC-3B22-427B-B366-DD6E7DF97CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" workbookViewId="0">
-      <selection activeCell="B230" sqref="B230"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="B231" sqref="B231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2139,8 +2139,12 @@
       </c>
     </row>
     <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A230" s="3"/>
-      <c r="B230" s="2"/>
+      <c r="A230" s="3">
+        <v>45292</v>
+      </c>
+      <c r="B230" s="2">
+        <v>563.37</v>
+      </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C79AC-3B22-427B-B366-DD6E7DF97CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371557F-94A1-417D-9714-CBD59A6398FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B231" sqref="B231"/>
+      <selection activeCell="B232" sqref="B232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2147,8 +2147,12 @@
       </c>
     </row>
     <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A231" s="3"/>
-      <c r="B231" s="2"/>
+      <c r="A231" s="3">
+        <v>45323</v>
+      </c>
+      <c r="B231" s="2">
+        <v>579.01</v>
+      </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2371557F-94A1-417D-9714-CBD59A6398FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F90D28-97FA-4309-8883-EA19F7865174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B232" sqref="B232"/>
+      <selection activeCell="B233" sqref="B233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2155,8 +2155,12 @@
       </c>
     </row>
     <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A232" s="3"/>
-      <c r="B232" s="2"/>
+      <c r="A232" s="3">
+        <v>45352</v>
+      </c>
+      <c r="B232" s="2">
+        <v>593.14</v>
+      </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F90D28-97FA-4309-8883-EA19F7865174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46442423-CC3C-4E9C-846D-F8036E7C8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accb_custo_total_itabuna" sheetId="1" r:id="rId1"/>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B233" sqref="B233"/>
+      <selection activeCell="B234" sqref="B234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2163,8 +2163,12 @@
       </c>
     </row>
     <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A233" s="3"/>
-      <c r="B233" s="2"/>
+      <c r="A233" s="3">
+        <v>45383</v>
+      </c>
+      <c r="B233" s="2">
+        <v>587.05999999999995</v>
+      </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46442423-CC3C-4E9C-846D-F8036E7C8369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560F0D5D-BAA2-49FE-8C4B-79CA4DB6789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="0" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accb_custo_total_itabuna" sheetId="1" r:id="rId1"/>
@@ -2171,8 +2171,12 @@
       </c>
     </row>
     <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A234" s="3"/>
-      <c r="B234" s="2"/>
+      <c r="A234" s="3">
+        <v>45413</v>
+      </c>
+      <c r="B234" s="2">
+        <v>589.05999999999995</v>
+      </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560F0D5D-BAA2-49FE-8C4B-79CA4DB6789F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7035C6-8D09-4058-927C-E35863A09F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -297,8 +297,8 @@
   </sheetPr>
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="B234" sqref="B234"/>
+    <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
+      <selection activeCell="B236" sqref="B236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2179,8 +2179,12 @@
       </c>
     </row>
     <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A235" s="3"/>
-      <c r="B235" s="2"/>
+      <c r="A235" s="3">
+        <v>45444</v>
+      </c>
+      <c r="B235" s="2">
+        <v>556.41</v>
+      </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7035C6-8D09-4058-927C-E35863A09F98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57A5B6-0E43-490F-AF6E-E2A7F078AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -298,7 +298,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B236" sqref="B236"/>
+      <selection activeCell="B237" sqref="B237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2187,8 +2187,12 @@
       </c>
     </row>
     <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A236" s="3"/>
-      <c r="B236" s="2"/>
+      <c r="A236" s="3">
+        <v>45474</v>
+      </c>
+      <c r="B236" s="2">
+        <v>521.64</v>
+      </c>
     </row>
     <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\PythonNotebooks\previsao_cestas\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C57A5B6-0E43-490F-AF6E-E2A7F078AC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F831AF4-AD4B-4FA2-97EB-764CC8A44AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -71,12 +71,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -298,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B237" sqref="B237"/>
+      <selection activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2194,7 +2195,14 @@
         <v>521.64</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="5">
+        <v>45505</v>
+      </c>
+      <c r="B237" s="2">
+        <v>525.42999999999995</v>
+      </c>
+    </row>
     <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F831AF4-AD4B-4FA2-97EB-764CC8A44AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB178D-3459-4BF7-AF99-E7A46B642644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B238" sqref="B238"/>
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2203,7 +2203,14 @@
         <v>525.42999999999995</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="5">
+        <v>45536</v>
+      </c>
+      <c r="B238" s="2">
+        <v>516.01</v>
+      </c>
+    </row>
     <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BB178D-3459-4BF7-AF99-E7A46B642644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2C2904-64C1-4AD2-BDD8-441437D63D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B239" sqref="B239"/>
+      <selection activeCell="B240" sqref="B240"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2211,7 +2211,14 @@
         <v>516.01</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="5">
+        <v>45566</v>
+      </c>
+      <c r="B239" s="2">
+        <v>535.98</v>
+      </c>
+    </row>
     <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2C2904-64C1-4AD2-BDD8-441437D63D78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2385F64-0FC6-48FF-A745-07132B4D4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B240" sqref="B240"/>
+      <selection activeCell="B241" sqref="B241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2219,7 +2219,14 @@
         <v>535.98</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="5">
+        <v>45597</v>
+      </c>
+      <c r="B240" s="2">
+        <v>541.54999999999995</v>
+      </c>
+    </row>
     <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2385F64-0FC6-48FF-A745-07132B4D4424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88453976-7D2D-401E-AAB5-59D54E8E8BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B241" sqref="B241"/>
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2227,22 +2227,29 @@
         <v>541.54999999999995</v>
       </c>
     </row>
-    <row r="241" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B241" s="2">
+        <v>585.47</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88453976-7D2D-401E-AAB5-59D54E8E8BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B49B0-102F-4627-B3FA-C2486E5CAD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B242" sqref="B242"/>
+      <selection activeCell="A243" sqref="A243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2235,7 +2235,14 @@
         <v>585.47</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="5">
+        <v>45627</v>
+      </c>
+      <c r="B242" s="2">
+        <v>596.36</v>
+      </c>
+    </row>
     <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6B49B0-102F-4627-B3FA-C2486E5CAD74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED322CAF-0AA0-4A6D-BA73-D3BA449B12B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A243" sqref="A243"/>
+      <selection activeCell="B244" sqref="B244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2237,13 +2237,20 @@
     </row>
     <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
-        <v>45627</v>
+        <v>45658</v>
       </c>
       <c r="B242" s="2">
         <v>596.36</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="5">
+        <v>45689</v>
+      </c>
+      <c r="B243" s="2">
+        <v>599.24</v>
+      </c>
+    </row>
     <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED322CAF-0AA0-4A6D-BA73-D3BA449B12B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40A285-75C0-4BD2-B633-5C54803F4EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="accb_custo_total_itabuna" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B244" sqref="B244"/>
+      <selection activeCell="B245" sqref="B245"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2251,7 +2251,14 @@
         <v>599.24</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="5">
+        <v>45717</v>
+      </c>
+      <c r="B244" s="2">
+        <v>589.44000000000005</v>
+      </c>
+    </row>
     <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A40A285-75C0-4BD2-B633-5C54803F4EB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7756BC37-DAF2-49A3-B241-1F292D985DED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -45,6 +45,13 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -71,13 +78,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -296,10 +304,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1000"/>
+  <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B245" sqref="B245"/>
+      <selection activeCell="H243" sqref="H243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2227,7 +2235,7 @@
         <v>541.54999999999995</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="5">
         <v>45627</v>
       </c>
@@ -2235,7 +2243,7 @@
         <v>585.47</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="5">
         <v>45658</v>
       </c>
@@ -2243,15 +2251,16 @@
         <v>596.36</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="5">
         <v>45689</v>
       </c>
       <c r="B243" s="2">
         <v>599.24</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H243" s="6"/>
+    </row>
+    <row r="244" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="5">
         <v>45717</v>
       </c>
@@ -2259,18 +2268,25 @@
         <v>589.44000000000005</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="245" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="5">
+        <v>45748</v>
+      </c>
+      <c r="B245" s="2">
+        <v>599.54999999999995</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="247" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="257" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="258" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="259" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A9A618-CD1C-4EFC-A9AB-D30CCEA44335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD968BF4-12A1-42D5-9F5D-0F86B9AFA301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -311,7 +311,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B248" sqref="B248"/>
+      <selection activeCell="A249" sqref="A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2296,7 +2296,14 @@
         <v>577.97</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="248" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="6">
+        <v>45839</v>
+      </c>
+      <c r="B248" s="1">
+        <v>592.29999999999995</v>
+      </c>
+    </row>
     <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD968BF4-12A1-42D5-9F5D-0F86B9AFA301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA133D0-F1FA-49CC-A5B1-7889D5DE3F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,11 @@
     <sheet name="accb_custo_total_itabuna" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -311,7 +316,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="A249" sqref="A249"/>
+      <selection activeCell="B250" sqref="B250"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2304,7 +2309,14 @@
         <v>592.29999999999995</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="6">
+        <v>45870</v>
+      </c>
+      <c r="B249" s="1">
+        <v>557.98</v>
+      </c>
+    </row>
     <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA133D0-F1FA-49CC-A5B1-7889D5DE3F10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10F3FC-5823-4B33-A312-741C3BC4C11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B250" sqref="B250"/>
+      <selection activeCell="B251" sqref="B251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2317,7 +2317,14 @@
         <v>557.98</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="250" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="6">
+        <v>45901</v>
+      </c>
+      <c r="B250" s="1">
+        <v>557.19000000000005</v>
+      </c>
+    </row>
     <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF10F3FC-5823-4B33-A312-741C3BC4C11C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51A84DB-295D-43A5-85B1-368C8281EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B251" sqref="B251"/>
+      <selection activeCell="B252" sqref="B252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2325,7 +2325,14 @@
         <v>557.19000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="251" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="6">
+        <v>45931</v>
+      </c>
+      <c r="B251" s="1">
+        <v>547.33000000000004</v>
+      </c>
+    </row>
     <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/data/accb_custo_total_itabuna.xlsx
+++ b/data/accb_custo_total_itabuna.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathe\Documents\Meus Codes\previsao_cestas\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51A84DB-295D-43A5-85B1-368C8281EE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B39A289-DC6C-4BA4-BEE7-13025FF3B8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -316,7 +316,7 @@
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="B252" sqref="B252"/>
+      <selection activeCell="B253" sqref="B253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2333,7 +2333,14 @@
         <v>547.33000000000004</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="252" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="6">
+        <v>45962</v>
+      </c>
+      <c r="B252" s="1">
+        <v>548.79999999999995</v>
+      </c>
+    </row>
     <row r="253" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="254" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="255" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
